--- a/2016년 수강료 6월/생명과학 수강료.xlsx
+++ b/2016년 수강료 6월/생명과학 수강료.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="119">
   <si>
     <t>*주야</t>
   </si>
@@ -449,30 +449,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,2186 +769,2190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="12.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f t="shared" ref="F2:F33" si="0">F$98</f>
         <v>16440</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G3" s="5"/>
+      <c r="F3" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>5</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G4" s="5"/>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G5" s="5"/>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G6" s="5"/>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>19</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G7" s="5"/>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>21</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G8" s="5"/>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>13</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G9" s="5"/>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>17</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G10" s="5"/>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>5</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G11" s="5"/>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>6</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G12" s="5"/>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>9</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G13" s="5"/>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>12</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G14" s="5"/>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>8</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G15" s="5"/>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>16</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G16" s="5"/>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>17</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G17" s="5"/>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>25</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G18" s="5"/>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>3</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G19" s="5"/>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>16</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G20" s="5"/>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>14</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G21" s="5"/>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>21</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G22" s="5"/>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>23</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G23" s="5"/>
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>24</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G24" s="5"/>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G25" s="5"/>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>2</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G26" s="5"/>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>3</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G27" s="5"/>
+      <c r="F27" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>4</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G28" s="5"/>
+      <c r="F28" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>5</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G29" s="5"/>
+      <c r="F29" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>14</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G30" s="5"/>
+      <c r="F30" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>18</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G31" s="5"/>
+      <c r="F31" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>25</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G32" s="5"/>
+      <c r="F32" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>2</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="5">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G33" s="5"/>
+      <c r="F33" s="4">
+        <f t="shared" si="0"/>
+        <v>16440</v>
+      </c>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>4</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <f t="shared" ref="F34:F65" si="1">F$98</f>
         <v>16440</v>
       </c>
-      <c r="G34" s="5"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="5">
-        <v>7</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="D35" s="4">
+        <v>7</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G35" s="5"/>
+      <c r="F35" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>16</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G36" s="5"/>
+      <c r="F36" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>20</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G37" s="5" t="s">
+      <c r="F37" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>21</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G38" s="5"/>
+      <c r="F38" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>26</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G39" s="5" t="s">
+      <c r="F39" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="5" t="s">
+      <c r="A40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>9</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G40" s="5" t="s">
+      <c r="F40" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>16</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G41" s="5"/>
+      <c r="F41" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>17</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G42" s="5"/>
+      <c r="F42" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>19</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G43" s="5"/>
+      <c r="F43" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>21</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G44" s="5"/>
+      <c r="F44" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="5" t="s">
+      <c r="A45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>20</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F45" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G45" s="5"/>
+      <c r="F45" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="5" t="s">
+      <c r="A46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>22</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F46" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G46" s="5"/>
+      <c r="F46" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="5" t="s">
+      <c r="A47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>6</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G47" s="5"/>
+      <c r="F47" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="5" t="s">
+      <c r="A48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>20</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G48" s="5"/>
+      <c r="F48" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="5" t="s">
+      <c r="A49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>13</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G49" s="5" t="s">
+      <c r="F49" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>19</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F50" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G50" s="5"/>
+      <c r="F50" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="5" t="s">
+      <c r="A51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>26</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G51" s="5"/>
+      <c r="F51" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="5" t="s">
+      <c r="A52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>17</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G52" s="5"/>
+      <c r="F52" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="5" t="s">
+      <c r="A53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>18</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G53" s="5"/>
+      <c r="F53" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="5" t="s">
+      <c r="A54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="5">
-        <v>7</v>
-      </c>
-      <c r="E54" s="5" t="s">
+      <c r="D54" s="4">
+        <v>7</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F54" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G54" s="5"/>
+      <c r="F54" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="5" t="s">
+      <c r="A55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>9</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F55" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G55" s="5"/>
+      <c r="F55" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>24</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F56" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G56" s="5"/>
+      <c r="F56" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="A57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>4</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F57" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G57" s="5"/>
+      <c r="F57" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <v>6</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F58" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G58" s="5"/>
+      <c r="F58" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="5" t="s">
+      <c r="A59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <v>8</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F59" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G59" s="5"/>
+      <c r="F59" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="5" t="s">
+      <c r="A60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <v>22</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F60" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G60" s="5"/>
+      <c r="F60" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="5" t="s">
+      <c r="A61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <v>4</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F61" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G61" s="5"/>
+      <c r="F61" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="5" t="s">
+      <c r="A62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="4">
         <v>25</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F62" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G62" s="5"/>
+      <c r="F62" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="5" t="s">
+      <c r="A63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <v>20</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F63" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G63" s="5"/>
+      <c r="F63" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="5" t="s">
+      <c r="A64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <v>25</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F64" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G64" s="5"/>
+      <c r="F64" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="5" t="s">
+      <c r="A65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="5">
-        <v>7</v>
-      </c>
-      <c r="E65" s="5" t="s">
+      <c r="D65" s="4">
+        <v>7</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F65" s="5">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G65" s="5"/>
+      <c r="F65" s="4">
+        <f t="shared" si="1"/>
+        <v>16440</v>
+      </c>
+      <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="5" t="s">
+      <c r="A66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <v>13</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="4">
         <f t="shared" ref="F66:F93" si="2">F$98</f>
         <v>16440</v>
       </c>
-      <c r="G66" s="5"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="5" t="s">
+      <c r="A67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <v>20</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G67" s="5"/>
+      <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="5" t="s">
+      <c r="A68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <v>16</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G68" s="5"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="5" t="s">
+      <c r="A69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <v>6</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G69" s="5"/>
+      <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="5" t="s">
+      <c r="A70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <v>12</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="5" t="s">
+      <c r="A71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <v>19</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G71" s="5"/>
+      <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="5" t="s">
+      <c r="A72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="4">
         <v>21</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G72" s="5"/>
+      <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="5" t="s">
+      <c r="A73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="4">
         <v>15</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="5" t="s">
+      <c r="A74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="4">
         <v>16</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G74" s="5"/>
+      <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="5" t="s">
+      <c r="A75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="4">
         <v>24</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G75" s="5"/>
+      <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" s="5" t="s">
+      <c r="A76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <v>8</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" s="5" t="s">
+      <c r="A77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="4">
         <v>22</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G77" s="5"/>
+      <c r="G77" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" s="5" t="s">
+      <c r="A78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <v>15</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="5" t="s">
+      <c r="A79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <v>11</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G79" s="5"/>
+      <c r="G79" s="4"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="5" t="s">
+      <c r="A80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="4">
         <v>13</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G80" s="5"/>
+      <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" s="5" t="s">
+      <c r="A81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <v>23</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G81" s="5"/>
+      <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" s="5" t="s">
+      <c r="A82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="4">
         <v>21</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="5" t="s">
+      <c r="A83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="4">
         <v>8</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G83" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" s="5" t="s">
+      <c r="A84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <v>26</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="5" t="s">
+      <c r="A85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <v>6</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G85" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="5" t="s">
+      <c r="A86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <v>22</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="G86" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" s="5" t="s">
+      <c r="A87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <v>13</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F87" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="G87" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="5" t="s">
+      <c r="A88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="4">
         <v>22</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G88" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="5" t="s">
+      <c r="A89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="4">
         <v>23</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F89" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="G89" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" s="5" t="s">
+      <c r="A90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="4">
         <v>3</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F90" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G90" s="5"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="5" t="s">
+      <c r="A91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="4">
         <v>4</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E91" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F91" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="G91" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" s="5" t="s">
+      <c r="A92" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="4">
         <v>19</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F92" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
+      <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" s="5" t="s">
+      <c r="A93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="4">
         <v>23</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F93" s="4">
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D95" s="1"/>
+      <c r="D95" s="7"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="1">
         <v>35000</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="7">
         <v>40</v>
       </c>
-      <c r="D96" s="1"/>
-      <c r="E96" s="3">
+      <c r="D96" s="7"/>
+      <c r="E96" s="2">
         <f>B96*C96</f>
         <v>1400000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="2">
         <f>ROUNDUP(E96/92,-1)</f>
         <v>15220</v>
       </c>
-      <c r="G96" s="1"/>
+      <c r="G96" s="7"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="2">
         <f>E96</f>
         <v>1400000</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="7">
         <v>0.08</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="2">
         <f>B97*C97</f>
         <v>112000</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="2">
         <f>ROUNDUP(E97/92,-1)</f>
         <v>1220</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="2">
         <f>SUM(F96:F97)</f>
         <v>16440</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="1"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="1"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="1"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
+      <c r="A109" s="7"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="7"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="1"/>
-      <c r="F110" s="3"/>
+      <c r="A110" s="7"/>
+      <c r="F110" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/2016년 수강료 6월/생명과학 수강료.xlsx
+++ b/2016년 수강료 6월/생명과학 수강료.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="555" windowWidth="20175" windowHeight="13500"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="116">
   <si>
     <t>*주야</t>
   </si>
@@ -351,9 +351,6 @@
     <t>김사랑</t>
   </si>
   <si>
-    <t xml:space="preserve">3학년 </t>
-  </si>
-  <si>
     <t>김나연</t>
   </si>
   <si>
@@ -363,16 +360,12 @@
     <t>최승림</t>
   </si>
   <si>
-    <t>시수</t>
-  </si>
-  <si>
-    <t>수강료</t>
-  </si>
-  <si>
-    <t>수용비</t>
-  </si>
-  <si>
-    <t>계</t>
+    <t>자유수강대상자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3학년 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -382,7 +375,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +414,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -436,7 +437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -444,32 +445,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,40 +786,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="12.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="5" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -821,7 +841,6 @@
         <v>10</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F33" si="0">F$98</f>
         <v>16440</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -845,7 +864,6 @@
         <v>12</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G3" s="4"/>
@@ -867,7 +885,6 @@
         <v>13</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G4" s="4"/>
@@ -883,16 +900,17 @@
         <v>9</v>
       </c>
       <c r="D5" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>16440</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
@@ -902,16 +920,15 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4">
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G6" s="4"/>
@@ -924,19 +941,20 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G7" s="4"/>
+        <v>16440</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
@@ -946,16 +964,15 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G8" s="4"/>
@@ -968,16 +985,15 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G9" s="4"/>
@@ -990,16 +1006,15 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4">
         <v>19</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G10" s="4"/>
@@ -1012,16 +1027,15 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G11" s="4"/>
@@ -1034,16 +1048,15 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12" s="4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G12" s="4"/>
@@ -1056,16 +1069,15 @@
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G13" s="4"/>
@@ -1078,19 +1090,20 @@
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="D14" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G14" s="4"/>
+        <v>16440</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
@@ -1100,19 +1113,20 @@
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D15" s="4">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G15" s="4"/>
+        <v>16440</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
@@ -1122,16 +1136,15 @@
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D16" s="4">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G16" s="4"/>
@@ -1144,16 +1157,15 @@
         <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D17" s="4">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G17" s="4"/>
@@ -1166,16 +1178,15 @@
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4">
+        <v>9</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F18" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G18" s="4"/>
@@ -1188,16 +1199,15 @@
         <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D19" s="4">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G19" s="4"/>
@@ -1210,16 +1220,15 @@
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D20" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G20" s="4"/>
@@ -1229,19 +1238,18 @@
         <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D21" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G21" s="4"/>
@@ -1251,19 +1259,18 @@
         <v>7</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D22" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G22" s="4"/>
@@ -1273,19 +1280,18 @@
         <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D23" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G23" s="4"/>
@@ -1295,19 +1301,18 @@
         <v>7</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D24" s="4">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G24" s="4"/>
@@ -1317,19 +1322,18 @@
         <v>7</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G25" s="4"/>
@@ -1342,16 +1346,15 @@
         <v>35</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26" s="4">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G26" s="4"/>
@@ -1364,19 +1367,20 @@
         <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4">
         <v>15</v>
       </c>
-      <c r="D27" s="4">
-        <v>3</v>
-      </c>
       <c r="E27" s="4" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G27" s="4"/>
+        <v>16440</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="4" t="s">
@@ -1386,16 +1390,15 @@
         <v>35</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D28" s="4">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G28" s="4"/>
@@ -1408,19 +1411,20 @@
         <v>35</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D29" s="4">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="0"/>
-        <v>16440</v>
-      </c>
-      <c r="G29" s="4"/>
+        <v>16440</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
@@ -1430,16 +1434,15 @@
         <v>35</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30" s="4">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G30" s="4"/>
@@ -1452,16 +1455,15 @@
         <v>35</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G31" s="4"/>
@@ -1477,13 +1479,12 @@
         <v>15</v>
       </c>
       <c r="D32" s="4">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G32" s="4"/>
@@ -1496,16 +1497,15 @@
         <v>35</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D33" s="4">
         <v>2</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="0"/>
         <v>16440</v>
       </c>
       <c r="G33" s="4"/>
@@ -1518,16 +1518,15 @@
         <v>35</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D34" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" ref="F34:F65" si="1">F$98</f>
         <v>16440</v>
       </c>
       <c r="G34" s="4"/>
@@ -1540,16 +1539,15 @@
         <v>35</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D35" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="1"/>
         <v>16440</v>
       </c>
       <c r="G35" s="4"/>
@@ -1562,16 +1560,15 @@
         <v>35</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D36" s="4">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="1"/>
         <v>16440</v>
       </c>
       <c r="G36" s="4"/>
@@ -1584,21 +1581,18 @@
         <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D37" s="4">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>16440</v>
+      </c>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="4" t="s">
@@ -1608,16 +1602,15 @@
         <v>35</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D38" s="4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="1"/>
         <v>16440</v>
       </c>
       <c r="G38" s="4"/>
@@ -1630,40 +1623,36 @@
         <v>35</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D39" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>16440</v>
+      </c>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D40" s="4">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="F40" s="4">
-        <f t="shared" si="1"/>
         <v>16440</v>
       </c>
       <c r="G40" s="4" t="s">
@@ -1675,41 +1664,41 @@
         <v>7</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D41" s="4">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="F41" s="4">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G41" s="4"/>
+        <v>16440</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D42" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" si="1"/>
         <v>16440</v>
       </c>
       <c r="G42" s="4"/>
@@ -1719,19 +1708,18 @@
         <v>7</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D43" s="4">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" si="1"/>
         <v>16440</v>
       </c>
       <c r="G43" s="4"/>
@@ -1741,19 +1729,18 @@
         <v>7</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D44" s="4">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="1"/>
         <v>16440</v>
       </c>
       <c r="G44" s="4"/>
@@ -1763,41 +1750,41 @@
         <v>7</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D45" s="4">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G45" s="4"/>
+        <v>16440</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D46" s="4">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="1"/>
         <v>16440</v>
       </c>
       <c r="G46" s="4"/>
@@ -1807,19 +1794,18 @@
         <v>7</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D47" s="4">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F47" s="4">
-        <f t="shared" si="1"/>
         <v>16440</v>
       </c>
       <c r="G47" s="4"/>
@@ -1829,7 +1815,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>22</v>
@@ -1838,144 +1824,145 @@
         <v>20</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F48" s="4">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G48" s="4"/>
+        <v>16440</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D49" s="4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>16440</v>
+      </c>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="D50" s="4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="F50" s="4">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G50" s="4"/>
+        <v>16440</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="4">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G51" s="4"/>
+        <v>16440</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D52" s="4">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F52" s="4">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G52" s="4"/>
+        <v>16440</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="4">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G53" s="4"/>
+        <v>16440</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="4">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" si="1"/>
         <v>16440</v>
       </c>
       <c r="G54" s="4"/>
@@ -1985,19 +1972,18 @@
         <v>7</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="4">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" si="1"/>
         <v>16440</v>
       </c>
       <c r="G55" s="4"/>
@@ -2007,19 +1993,18 @@
         <v>7</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="4">
         <v>19</v>
       </c>
-      <c r="D56" s="4">
-        <v>24</v>
-      </c>
       <c r="E56" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" si="1"/>
         <v>16440</v>
       </c>
       <c r="G56" s="4"/>
@@ -2029,19 +2014,18 @@
         <v>7</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D57" s="4">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F57" s="4">
-        <f t="shared" si="1"/>
         <v>16440</v>
       </c>
       <c r="G57" s="4"/>
@@ -2051,19 +2035,18 @@
         <v>7</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D58" s="4">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" si="1"/>
         <v>16440</v>
       </c>
       <c r="G58" s="4"/>
@@ -2073,19 +2056,18 @@
         <v>7</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="4">
         <v>22</v>
       </c>
-      <c r="D59" s="4">
-        <v>8</v>
-      </c>
       <c r="E59" s="4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F59" s="4">
-        <f t="shared" si="1"/>
         <v>16440</v>
       </c>
       <c r="G59" s="4"/>
@@ -2095,19 +2077,18 @@
         <v>7</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D60" s="4">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F60" s="4">
-        <f t="shared" si="1"/>
         <v>16440</v>
       </c>
       <c r="G60" s="4"/>
@@ -2117,19 +2098,18 @@
         <v>7</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D61" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F61" s="4">
-        <f t="shared" si="1"/>
         <v>16440</v>
       </c>
       <c r="G61" s="4"/>
@@ -2139,19 +2119,18 @@
         <v>7</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D62" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F62" s="4">
-        <f t="shared" si="1"/>
         <v>16440</v>
       </c>
       <c r="G62" s="4"/>
@@ -2161,41 +2140,41 @@
         <v>7</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D63" s="4">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F63" s="4">
-        <f t="shared" si="1"/>
-        <v>16440</v>
-      </c>
-      <c r="G63" s="4"/>
+        <v>16440</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D64" s="4">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F64" s="4">
-        <f t="shared" si="1"/>
         <v>16440</v>
       </c>
       <c r="G64" s="4"/>
@@ -2205,19 +2184,18 @@
         <v>7</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D65" s="4">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F65" s="4">
-        <f t="shared" si="1"/>
         <v>16440</v>
       </c>
       <c r="G65" s="4"/>
@@ -2227,19 +2205,18 @@
         <v>7</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D66" s="4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F66" s="4">
-        <f t="shared" ref="F66:F93" si="2">F$98</f>
         <v>16440</v>
       </c>
       <c r="G66" s="4"/>
@@ -2249,41 +2226,41 @@
         <v>7</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D67" s="4">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" si="2"/>
-        <v>16440</v>
-      </c>
-      <c r="G67" s="4"/>
+        <v>16440</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D68" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F68" s="4">
-        <f t="shared" si="2"/>
         <v>16440</v>
       </c>
       <c r="G68" s="4"/>
@@ -2293,19 +2270,18 @@
         <v>7</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D69" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F69" s="4">
-        <f t="shared" si="2"/>
         <v>16440</v>
       </c>
       <c r="G69" s="4"/>
@@ -2315,65 +2291,60 @@
         <v>7</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D70" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F70" s="4">
-        <f t="shared" si="2"/>
-        <v>16440</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>16440</v>
+      </c>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D71" s="4">
         <v>19</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="F71" s="4">
-        <f t="shared" si="2"/>
-        <v>16440</v>
-      </c>
-      <c r="G71" s="4"/>
+        <v>16440</v>
+      </c>
+      <c r="G71" s="7"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D72" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F72" s="4">
-        <f t="shared" si="2"/>
         <v>16440</v>
       </c>
       <c r="G72" s="4"/>
@@ -2383,43 +2354,39 @@
         <v>7</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D73" s="4">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F73" s="4">
-        <f t="shared" si="2"/>
-        <v>16440</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>16440</v>
+      </c>
+      <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D74" s="4">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="F74" s="4">
-        <f t="shared" si="2"/>
         <v>16440</v>
       </c>
       <c r="G74" s="4"/>
@@ -2429,19 +2396,18 @@
         <v>7</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D75" s="4">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F75" s="4">
-        <f t="shared" si="2"/>
         <v>16440</v>
       </c>
       <c r="G75" s="4"/>
@@ -2451,91 +2417,81 @@
         <v>7</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D76" s="4">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="F76" s="4">
-        <f t="shared" si="2"/>
-        <v>16440</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>16440</v>
+      </c>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D77" s="4">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F77" s="4">
-        <f t="shared" si="2"/>
-        <v>16440</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>16440</v>
+      </c>
+      <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D78" s="4">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F78" s="4">
-        <f t="shared" si="2"/>
-        <v>16440</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>16440</v>
+      </c>
+      <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D79" s="4">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="F79" s="4">
-        <f t="shared" si="2"/>
         <v>16440</v>
       </c>
       <c r="G79" s="4"/>
@@ -2545,19 +2501,18 @@
         <v>7</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D80" s="4">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F80" s="4">
-        <f t="shared" si="2"/>
         <v>16440</v>
       </c>
       <c r="G80" s="4"/>
@@ -2567,19 +2522,18 @@
         <v>7</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F81" s="4">
-        <f t="shared" si="2"/>
         <v>16440</v>
       </c>
       <c r="G81" s="4"/>
@@ -2589,91 +2543,81 @@
         <v>7</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="4">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F82" s="4">
-        <f t="shared" si="2"/>
-        <v>16440</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>16440</v>
+      </c>
+      <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="D83" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F83" s="4">
-        <f t="shared" si="2"/>
-        <v>16440</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>16440</v>
+      </c>
+      <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D84" s="4">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="F84" s="4">
-        <f t="shared" si="2"/>
-        <v>16440</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>16440</v>
+      </c>
+      <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D85" s="4">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F85" s="4">
-        <f t="shared" si="2"/>
         <v>16440</v>
       </c>
       <c r="G85" s="4" t="s">
@@ -2685,67 +2629,60 @@
         <v>7</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="D86" s="4">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F86" s="4">
-        <f t="shared" si="2"/>
-        <v>16440</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>16440</v>
+      </c>
+      <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="4">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="F87" s="4">
-        <f t="shared" si="2"/>
-        <v>16440</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>16440</v>
+      </c>
+      <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D88" s="4">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="F88" s="4">
-        <f t="shared" si="2"/>
         <v>16440</v>
       </c>
       <c r="G88" s="4" t="s">
@@ -2757,43 +2694,39 @@
         <v>7</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="D89" s="4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="F89" s="4">
-        <f t="shared" si="2"/>
-        <v>16440</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>16440</v>
+      </c>
+      <c r="G89" s="4"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D90" s="4">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="F90" s="4">
-        <f t="shared" si="2"/>
         <v>16440</v>
       </c>
       <c r="G90" s="4"/>
@@ -2803,19 +2736,18 @@
         <v>7</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D91" s="4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F91" s="4">
-        <f t="shared" si="2"/>
         <v>16440</v>
       </c>
       <c r="G91" s="4" t="s">
@@ -2827,19 +2759,18 @@
         <v>7</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D92" s="4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="F92" s="4">
-        <f t="shared" si="2"/>
         <v>16440</v>
       </c>
       <c r="G92" s="4"/>
@@ -2849,114 +2780,60 @@
         <v>7</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D93" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="F93" s="4">
-        <f t="shared" si="2"/>
-        <v>16440</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>16440</v>
+      </c>
+      <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
-      <c r="G94" s="4"/>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="C95" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D95" s="7"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B96" s="1">
-        <v>35000</v>
-      </c>
-      <c r="C96" s="7">
-        <v>40</v>
-      </c>
-      <c r="D96" s="7"/>
-      <c r="E96" s="2">
-        <f>B96*C96</f>
-        <v>1400000</v>
-      </c>
-      <c r="F96" s="2">
-        <f>ROUNDUP(E96/92,-1)</f>
-        <v>15220</v>
-      </c>
-      <c r="G96" s="7"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B97" s="2">
-        <f>E96</f>
-        <v>1400000</v>
-      </c>
-      <c r="C97" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="E97" s="2">
-        <f>B97*C97</f>
-        <v>112000</v>
-      </c>
-      <c r="F97" s="2">
-        <f>ROUNDUP(E97/92,-1)</f>
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F98" s="2">
-        <f>SUM(F96:F97)</f>
-        <v>16440</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="7"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="7"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="7"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="7"/>
-      <c r="F110" s="2"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="1"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1"/>
+      <c r="F106" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="A2:G93">
+    <sortCondition ref="B2:B93"/>
+    <sortCondition ref="C2:C93"/>
+    <sortCondition ref="D2:D93"/>
+  </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
